--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/BeneVerification_Pay.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/BeneVerification_Pay.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-16122020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,13 +41,13 @@
     <t>Select L.CONSUMER_NUMBER, COMPANY_NAME, BILL_BENE_NICK from DC_BILL_PAYMENT_BENEFICIARY  l where L.CUSTOMER_INFO_ID= (Select customer_info_id from dc_customer_info k where k.customer_name = '{customer_name}') and L.IS_ACTIVE = '1' and L.COMPANY_SUB_CATEGORY = '{company_sub_category}'</t>
   </si>
   <si>
-    <t>As a user I want to verify Already Added Beneficiaries of Bill Payment</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>As a user I want to verify Already Added Beneficiaries of Bill Payment Bene_Verification_pay</t>
   </si>
 </sst>
 </file>
@@ -368,12 +368,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -395,10 +395,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
